--- a/ig/sd-group-characteristic-alignement-vs/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/ValueSet-eclaire-group-characteristic-kind-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>EEclaireGroupCharacteristicKindVS</t>
+    <t>EclaireGroupCharacteristicKindVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-10T17:41:42+00:00</t>
+    <t>2024-01-11T08:51:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
